--- a/static/excel/Vinay kumar reddy_CAR.xlsx
+++ b/static/excel/Vinay kumar reddy_CAR.xlsx
@@ -634,10 +634,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="H2" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="3">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="H3" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="4">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="H4" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +774,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">You are eligible for a new Personal Loan of ₹105086. </t>
+          <t xml:space="preserve">You are eligible for a new Personal Loan of ₹315259. </t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105086</v>
+        <v>315259</v>
       </c>
     </row>
   </sheetData>
